--- a/po_analysis_by_asin/B089FWWN62_po_data.xlsx
+++ b/po_analysis_by_asin/B089FWWN62_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,177 +452,425 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>330</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>910</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>420</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45376</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45390</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45397</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45404</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45411</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45418</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>620</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45425</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>380</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45432</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45453</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>820</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45460</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>240</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45467</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45481</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>80</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45516</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45523</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>140</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45530</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45537</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45544</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B23" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B54" t="n">
         <v>260</v>
       </c>
     </row>
@@ -637,7 +885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,15 +907,15 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1020</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>10</v>
@@ -675,49 +923,129 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>880</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1320</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1120</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>80</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>380</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>420</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B089FWWN62_po_data.xlsx
+++ b/po_analysis_by_asin/B089FWWN62_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -901,7 +902,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1047,6 +1048,901 @@
       </c>
       <c r="B19" t="n">
         <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>232</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-53.45302935078862</v>
+      </c>
+      <c r="D2" t="n">
+        <v>525.7243324336175</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>232</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-55.64996185215574</v>
+      </c>
+      <c r="D3" t="n">
+        <v>516.9255678361783</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>232</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-67.95518388922827</v>
+      </c>
+      <c r="D4" t="n">
+        <v>527.4858904489338</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>232</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-90.83089924462823</v>
+      </c>
+      <c r="D5" t="n">
+        <v>508.4722687230466</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>232</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-61.05217029337783</v>
+      </c>
+      <c r="D6" t="n">
+        <v>522.5359536626761</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>232</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-64.28101752920979</v>
+      </c>
+      <c r="D7" t="n">
+        <v>512.1536036069256</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>232</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-62.16977976662695</v>
+      </c>
+      <c r="D8" t="n">
+        <v>503.2444775437471</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>232</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-88.14254056853845</v>
+      </c>
+      <c r="D9" t="n">
+        <v>533.1562449354653</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>232</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-56.70078329489922</v>
+      </c>
+      <c r="D10" t="n">
+        <v>539.706659152315</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>232</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-51.53329020624922</v>
+      </c>
+      <c r="D11" t="n">
+        <v>516.9978495506302</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>232</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-37.01156815844437</v>
+      </c>
+      <c r="D12" t="n">
+        <v>508.5615105461875</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>232</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-54.97817722337592</v>
+      </c>
+      <c r="D13" t="n">
+        <v>541.9063548554543</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>232</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-54.75275627227808</v>
+      </c>
+      <c r="D14" t="n">
+        <v>520.3513427726003</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>232</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-41.60638551558812</v>
+      </c>
+      <c r="D15" t="n">
+        <v>524.9377869416405</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>232</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-59.4231952543119</v>
+      </c>
+      <c r="D16" t="n">
+        <v>513.8879374628001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>232</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-67.40786089392343</v>
+      </c>
+      <c r="D17" t="n">
+        <v>511.0496852797079</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>232</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-57.46140285109725</v>
+      </c>
+      <c r="D18" t="n">
+        <v>492.6097732299904</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>232</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-50.74077333411766</v>
+      </c>
+      <c r="D19" t="n">
+        <v>499.0253388497781</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>232</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-45.70931237572956</v>
+      </c>
+      <c r="D20" t="n">
+        <v>501.2314646784566</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>232</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-56.92581564778802</v>
+      </c>
+      <c r="D21" t="n">
+        <v>500.7377863692814</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>232</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-62.74373883236316</v>
+      </c>
+      <c r="D22" t="n">
+        <v>527.5845815389407</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>232</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-57.88859630263153</v>
+      </c>
+      <c r="D23" t="n">
+        <v>514.3240013777429</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>232</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-54.35422275922176</v>
+      </c>
+      <c r="D24" t="n">
+        <v>523.0282718487605</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>232</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-23.57204992722915</v>
+      </c>
+      <c r="D25" t="n">
+        <v>531.6513041202547</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>232</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-51.91815825850789</v>
+      </c>
+      <c r="D26" t="n">
+        <v>531.4567055526849</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>232</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-75.32066505173901</v>
+      </c>
+      <c r="D27" t="n">
+        <v>499.9287758162881</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>232</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-48.9494118747411</v>
+      </c>
+      <c r="D28" t="n">
+        <v>524.0343932780864</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>232</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-59.9485828744769</v>
+      </c>
+      <c r="D29" t="n">
+        <v>513.7605903118889</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>232</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-47.73962474733836</v>
+      </c>
+      <c r="D30" t="n">
+        <v>515.3928751106306</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>232</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-59.87246676002444</v>
+      </c>
+      <c r="D31" t="n">
+        <v>509.1611303152621</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>232</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-41.60444013415268</v>
+      </c>
+      <c r="D32" t="n">
+        <v>519.2363315968707</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>232</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-56.10810592168248</v>
+      </c>
+      <c r="D33" t="n">
+        <v>518.8497949997512</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>232</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-72.28118745288744</v>
+      </c>
+      <c r="D34" t="n">
+        <v>513.7964571404993</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>232</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-56.02661231695842</v>
+      </c>
+      <c r="D35" t="n">
+        <v>516.0102474182471</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>232</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-60.88006956059125</v>
+      </c>
+      <c r="D36" t="n">
+        <v>519.6165218729855</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>232</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-40.75900329164643</v>
+      </c>
+      <c r="D37" t="n">
+        <v>504.1952653756281</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>232</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-55.51574186933848</v>
+      </c>
+      <c r="D38" t="n">
+        <v>518.1264023149578</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>232</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-39.60097157232273</v>
+      </c>
+      <c r="D39" t="n">
+        <v>516.292468998497</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>232</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-63.94935300043258</v>
+      </c>
+      <c r="D40" t="n">
+        <v>514.7647873798313</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>232</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-46.29390925953145</v>
+      </c>
+      <c r="D41" t="n">
+        <v>521.511837982554</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>232</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-64.3137258755003</v>
+      </c>
+      <c r="D42" t="n">
+        <v>519.4427980322724</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>232</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-42.41965656920306</v>
+      </c>
+      <c r="D43" t="n">
+        <v>512.0898040277323</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>232</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-36.09797506311603</v>
+      </c>
+      <c r="D44" t="n">
+        <v>538.8093751885021</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>232</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-56.24648370975486</v>
+      </c>
+      <c r="D45" t="n">
+        <v>531.1141338231263</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>232</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-87.55952380071685</v>
+      </c>
+      <c r="D46" t="n">
+        <v>532.4776557688997</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>232</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-45.63014252852665</v>
+      </c>
+      <c r="D47" t="n">
+        <v>510.5470533777044</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>232</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-49.89607278103605</v>
+      </c>
+      <c r="D48" t="n">
+        <v>517.6903463823734</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>232</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-47.81233804635548</v>
+      </c>
+      <c r="D49" t="n">
+        <v>522.373006847017</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>232</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-48.03317794480747</v>
+      </c>
+      <c r="D50" t="n">
+        <v>526.8592947938666</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>232</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-68.01907759844498</v>
+      </c>
+      <c r="D51" t="n">
+        <v>511.9173249367543</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>232</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-77.63142122303671</v>
+      </c>
+      <c r="D52" t="n">
+        <v>503.5196692806982</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>232</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-62.21028736517411</v>
+      </c>
+      <c r="D53" t="n">
+        <v>502.8250643983228</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>232</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-54.30093787866034</v>
+      </c>
+      <c r="D54" t="n">
+        <v>520.7774516014854</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>232</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-70.62790272261765</v>
+      </c>
+      <c r="D55" t="n">
+        <v>493.3628454528417</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>232</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-49.43406122919497</v>
+      </c>
+      <c r="D56" t="n">
+        <v>521.4098992242938</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>233</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-50.21073563183444</v>
+      </c>
+      <c r="D57" t="n">
+        <v>510.493058026571</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>233</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-75.80230712353978</v>
+      </c>
+      <c r="D58" t="n">
+        <v>503.3015575000107</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>233</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-45.72236185801946</v>
+      </c>
+      <c r="D59" t="n">
+        <v>518.530830542867</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>233</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-37.12560911509621</v>
+      </c>
+      <c r="D60" t="n">
+        <v>532.5101307643583</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>233</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-33.17267228662396</v>
+      </c>
+      <c r="D61" t="n">
+        <v>500.0310615951012</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>233</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-63.41154100627495</v>
+      </c>
+      <c r="D62" t="n">
+        <v>526.481563286412</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B089FWWN62_po_data.xlsx
+++ b/po_analysis_by_asin/B089FWWN62_po_data.xlsx
@@ -1061,7 +1061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1080,16 +1080,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1098,12 +1088,6 @@
       <c r="B2" t="n">
         <v>232</v>
       </c>
-      <c r="C2" t="n">
-        <v>-53.45302935078862</v>
-      </c>
-      <c r="D2" t="n">
-        <v>525.7243324336175</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1112,12 +1096,6 @@
       <c r="B3" t="n">
         <v>232</v>
       </c>
-      <c r="C3" t="n">
-        <v>-55.64996185215574</v>
-      </c>
-      <c r="D3" t="n">
-        <v>516.9255678361783</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1126,12 +1104,6 @@
       <c r="B4" t="n">
         <v>232</v>
       </c>
-      <c r="C4" t="n">
-        <v>-67.95518388922827</v>
-      </c>
-      <c r="D4" t="n">
-        <v>527.4858904489338</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1140,12 +1112,6 @@
       <c r="B5" t="n">
         <v>232</v>
       </c>
-      <c r="C5" t="n">
-        <v>-90.83089924462823</v>
-      </c>
-      <c r="D5" t="n">
-        <v>508.4722687230466</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1154,12 +1120,6 @@
       <c r="B6" t="n">
         <v>232</v>
       </c>
-      <c r="C6" t="n">
-        <v>-61.05217029337783</v>
-      </c>
-      <c r="D6" t="n">
-        <v>522.5359536626761</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1168,12 +1128,6 @@
       <c r="B7" t="n">
         <v>232</v>
       </c>
-      <c r="C7" t="n">
-        <v>-64.28101752920979</v>
-      </c>
-      <c r="D7" t="n">
-        <v>512.1536036069256</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1182,12 +1136,6 @@
       <c r="B8" t="n">
         <v>232</v>
       </c>
-      <c r="C8" t="n">
-        <v>-62.16977976662695</v>
-      </c>
-      <c r="D8" t="n">
-        <v>503.2444775437471</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1196,12 +1144,6 @@
       <c r="B9" t="n">
         <v>232</v>
       </c>
-      <c r="C9" t="n">
-        <v>-88.14254056853845</v>
-      </c>
-      <c r="D9" t="n">
-        <v>533.1562449354653</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1210,12 +1152,6 @@
       <c r="B10" t="n">
         <v>232</v>
       </c>
-      <c r="C10" t="n">
-        <v>-56.70078329489922</v>
-      </c>
-      <c r="D10" t="n">
-        <v>539.706659152315</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1224,12 +1160,6 @@
       <c r="B11" t="n">
         <v>232</v>
       </c>
-      <c r="C11" t="n">
-        <v>-51.53329020624922</v>
-      </c>
-      <c r="D11" t="n">
-        <v>516.9978495506302</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1238,12 +1168,6 @@
       <c r="B12" t="n">
         <v>232</v>
       </c>
-      <c r="C12" t="n">
-        <v>-37.01156815844437</v>
-      </c>
-      <c r="D12" t="n">
-        <v>508.5615105461875</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1252,12 +1176,6 @@
       <c r="B13" t="n">
         <v>232</v>
       </c>
-      <c r="C13" t="n">
-        <v>-54.97817722337592</v>
-      </c>
-      <c r="D13" t="n">
-        <v>541.9063548554543</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1266,12 +1184,6 @@
       <c r="B14" t="n">
         <v>232</v>
       </c>
-      <c r="C14" t="n">
-        <v>-54.75275627227808</v>
-      </c>
-      <c r="D14" t="n">
-        <v>520.3513427726003</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1280,12 +1192,6 @@
       <c r="B15" t="n">
         <v>232</v>
       </c>
-      <c r="C15" t="n">
-        <v>-41.60638551558812</v>
-      </c>
-      <c r="D15" t="n">
-        <v>524.9377869416405</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1294,12 +1200,6 @@
       <c r="B16" t="n">
         <v>232</v>
       </c>
-      <c r="C16" t="n">
-        <v>-59.4231952543119</v>
-      </c>
-      <c r="D16" t="n">
-        <v>513.8879374628001</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1308,12 +1208,6 @@
       <c r="B17" t="n">
         <v>232</v>
       </c>
-      <c r="C17" t="n">
-        <v>-67.40786089392343</v>
-      </c>
-      <c r="D17" t="n">
-        <v>511.0496852797079</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1322,12 +1216,6 @@
       <c r="B18" t="n">
         <v>232</v>
       </c>
-      <c r="C18" t="n">
-        <v>-57.46140285109725</v>
-      </c>
-      <c r="D18" t="n">
-        <v>492.6097732299904</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1336,12 +1224,6 @@
       <c r="B19" t="n">
         <v>232</v>
       </c>
-      <c r="C19" t="n">
-        <v>-50.74077333411766</v>
-      </c>
-      <c r="D19" t="n">
-        <v>499.0253388497781</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1350,12 +1232,6 @@
       <c r="B20" t="n">
         <v>232</v>
       </c>
-      <c r="C20" t="n">
-        <v>-45.70931237572956</v>
-      </c>
-      <c r="D20" t="n">
-        <v>501.2314646784566</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1364,12 +1240,6 @@
       <c r="B21" t="n">
         <v>232</v>
       </c>
-      <c r="C21" t="n">
-        <v>-56.92581564778802</v>
-      </c>
-      <c r="D21" t="n">
-        <v>500.7377863692814</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1378,12 +1248,6 @@
       <c r="B22" t="n">
         <v>232</v>
       </c>
-      <c r="C22" t="n">
-        <v>-62.74373883236316</v>
-      </c>
-      <c r="D22" t="n">
-        <v>527.5845815389407</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1392,12 +1256,6 @@
       <c r="B23" t="n">
         <v>232</v>
       </c>
-      <c r="C23" t="n">
-        <v>-57.88859630263153</v>
-      </c>
-      <c r="D23" t="n">
-        <v>514.3240013777429</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1406,12 +1264,6 @@
       <c r="B24" t="n">
         <v>232</v>
       </c>
-      <c r="C24" t="n">
-        <v>-54.35422275922176</v>
-      </c>
-      <c r="D24" t="n">
-        <v>523.0282718487605</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1420,12 +1272,6 @@
       <c r="B25" t="n">
         <v>232</v>
       </c>
-      <c r="C25" t="n">
-        <v>-23.57204992722915</v>
-      </c>
-      <c r="D25" t="n">
-        <v>531.6513041202547</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1434,12 +1280,6 @@
       <c r="B26" t="n">
         <v>232</v>
       </c>
-      <c r="C26" t="n">
-        <v>-51.91815825850789</v>
-      </c>
-      <c r="D26" t="n">
-        <v>531.4567055526849</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1448,12 +1288,6 @@
       <c r="B27" t="n">
         <v>232</v>
       </c>
-      <c r="C27" t="n">
-        <v>-75.32066505173901</v>
-      </c>
-      <c r="D27" t="n">
-        <v>499.9287758162881</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1462,12 +1296,6 @@
       <c r="B28" t="n">
         <v>232</v>
       </c>
-      <c r="C28" t="n">
-        <v>-48.9494118747411</v>
-      </c>
-      <c r="D28" t="n">
-        <v>524.0343932780864</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1476,12 +1304,6 @@
       <c r="B29" t="n">
         <v>232</v>
       </c>
-      <c r="C29" t="n">
-        <v>-59.9485828744769</v>
-      </c>
-      <c r="D29" t="n">
-        <v>513.7605903118889</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1490,12 +1312,6 @@
       <c r="B30" t="n">
         <v>232</v>
       </c>
-      <c r="C30" t="n">
-        <v>-47.73962474733836</v>
-      </c>
-      <c r="D30" t="n">
-        <v>515.3928751106306</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1504,12 +1320,6 @@
       <c r="B31" t="n">
         <v>232</v>
       </c>
-      <c r="C31" t="n">
-        <v>-59.87246676002444</v>
-      </c>
-      <c r="D31" t="n">
-        <v>509.1611303152621</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1518,12 +1328,6 @@
       <c r="B32" t="n">
         <v>232</v>
       </c>
-      <c r="C32" t="n">
-        <v>-41.60444013415268</v>
-      </c>
-      <c r="D32" t="n">
-        <v>519.2363315968707</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1532,12 +1336,6 @@
       <c r="B33" t="n">
         <v>232</v>
       </c>
-      <c r="C33" t="n">
-        <v>-56.10810592168248</v>
-      </c>
-      <c r="D33" t="n">
-        <v>518.8497949997512</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1546,12 +1344,6 @@
       <c r="B34" t="n">
         <v>232</v>
       </c>
-      <c r="C34" t="n">
-        <v>-72.28118745288744</v>
-      </c>
-      <c r="D34" t="n">
-        <v>513.7964571404993</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1560,12 +1352,6 @@
       <c r="B35" t="n">
         <v>232</v>
       </c>
-      <c r="C35" t="n">
-        <v>-56.02661231695842</v>
-      </c>
-      <c r="D35" t="n">
-        <v>516.0102474182471</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1574,12 +1360,6 @@
       <c r="B36" t="n">
         <v>232</v>
       </c>
-      <c r="C36" t="n">
-        <v>-60.88006956059125</v>
-      </c>
-      <c r="D36" t="n">
-        <v>519.6165218729855</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1588,12 +1368,6 @@
       <c r="B37" t="n">
         <v>232</v>
       </c>
-      <c r="C37" t="n">
-        <v>-40.75900329164643</v>
-      </c>
-      <c r="D37" t="n">
-        <v>504.1952653756281</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1602,12 +1376,6 @@
       <c r="B38" t="n">
         <v>232</v>
       </c>
-      <c r="C38" t="n">
-        <v>-55.51574186933848</v>
-      </c>
-      <c r="D38" t="n">
-        <v>518.1264023149578</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1616,12 +1384,6 @@
       <c r="B39" t="n">
         <v>232</v>
       </c>
-      <c r="C39" t="n">
-        <v>-39.60097157232273</v>
-      </c>
-      <c r="D39" t="n">
-        <v>516.292468998497</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1630,12 +1392,6 @@
       <c r="B40" t="n">
         <v>232</v>
       </c>
-      <c r="C40" t="n">
-        <v>-63.94935300043258</v>
-      </c>
-      <c r="D40" t="n">
-        <v>514.7647873798313</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1644,12 +1400,6 @@
       <c r="B41" t="n">
         <v>232</v>
       </c>
-      <c r="C41" t="n">
-        <v>-46.29390925953145</v>
-      </c>
-      <c r="D41" t="n">
-        <v>521.511837982554</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1658,12 +1408,6 @@
       <c r="B42" t="n">
         <v>232</v>
       </c>
-      <c r="C42" t="n">
-        <v>-64.3137258755003</v>
-      </c>
-      <c r="D42" t="n">
-        <v>519.4427980322724</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1672,12 +1416,6 @@
       <c r="B43" t="n">
         <v>232</v>
       </c>
-      <c r="C43" t="n">
-        <v>-42.41965656920306</v>
-      </c>
-      <c r="D43" t="n">
-        <v>512.0898040277323</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1686,12 +1424,6 @@
       <c r="B44" t="n">
         <v>232</v>
       </c>
-      <c r="C44" t="n">
-        <v>-36.09797506311603</v>
-      </c>
-      <c r="D44" t="n">
-        <v>538.8093751885021</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1700,12 +1432,6 @@
       <c r="B45" t="n">
         <v>232</v>
       </c>
-      <c r="C45" t="n">
-        <v>-56.24648370975486</v>
-      </c>
-      <c r="D45" t="n">
-        <v>531.1141338231263</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1714,12 +1440,6 @@
       <c r="B46" t="n">
         <v>232</v>
       </c>
-      <c r="C46" t="n">
-        <v>-87.55952380071685</v>
-      </c>
-      <c r="D46" t="n">
-        <v>532.4776557688997</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1728,12 +1448,6 @@
       <c r="B47" t="n">
         <v>232</v>
       </c>
-      <c r="C47" t="n">
-        <v>-45.63014252852665</v>
-      </c>
-      <c r="D47" t="n">
-        <v>510.5470533777044</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1742,12 +1456,6 @@
       <c r="B48" t="n">
         <v>232</v>
       </c>
-      <c r="C48" t="n">
-        <v>-49.89607278103605</v>
-      </c>
-      <c r="D48" t="n">
-        <v>517.6903463823734</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1756,12 +1464,6 @@
       <c r="B49" t="n">
         <v>232</v>
       </c>
-      <c r="C49" t="n">
-        <v>-47.81233804635548</v>
-      </c>
-      <c r="D49" t="n">
-        <v>522.373006847017</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1770,12 +1472,6 @@
       <c r="B50" t="n">
         <v>232</v>
       </c>
-      <c r="C50" t="n">
-        <v>-48.03317794480747</v>
-      </c>
-      <c r="D50" t="n">
-        <v>526.8592947938666</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1784,12 +1480,6 @@
       <c r="B51" t="n">
         <v>232</v>
       </c>
-      <c r="C51" t="n">
-        <v>-68.01907759844498</v>
-      </c>
-      <c r="D51" t="n">
-        <v>511.9173249367543</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1798,12 +1488,6 @@
       <c r="B52" t="n">
         <v>232</v>
       </c>
-      <c r="C52" t="n">
-        <v>-77.63142122303671</v>
-      </c>
-      <c r="D52" t="n">
-        <v>503.5196692806982</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1812,12 +1496,6 @@
       <c r="B53" t="n">
         <v>232</v>
       </c>
-      <c r="C53" t="n">
-        <v>-62.21028736517411</v>
-      </c>
-      <c r="D53" t="n">
-        <v>502.8250643983228</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1826,12 +1504,6 @@
       <c r="B54" t="n">
         <v>232</v>
       </c>
-      <c r="C54" t="n">
-        <v>-54.30093787866034</v>
-      </c>
-      <c r="D54" t="n">
-        <v>520.7774516014854</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1840,12 +1512,6 @@
       <c r="B55" t="n">
         <v>232</v>
       </c>
-      <c r="C55" t="n">
-        <v>-70.62790272261765</v>
-      </c>
-      <c r="D55" t="n">
-        <v>493.3628454528417</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1854,12 +1520,6 @@
       <c r="B56" t="n">
         <v>232</v>
       </c>
-      <c r="C56" t="n">
-        <v>-49.43406122919497</v>
-      </c>
-      <c r="D56" t="n">
-        <v>521.4098992242938</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1868,12 +1528,6 @@
       <c r="B57" t="n">
         <v>233</v>
       </c>
-      <c r="C57" t="n">
-        <v>-50.21073563183444</v>
-      </c>
-      <c r="D57" t="n">
-        <v>510.493058026571</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1882,12 +1536,6 @@
       <c r="B58" t="n">
         <v>233</v>
       </c>
-      <c r="C58" t="n">
-        <v>-75.80230712353978</v>
-      </c>
-      <c r="D58" t="n">
-        <v>503.3015575000107</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1896,12 +1544,6 @@
       <c r="B59" t="n">
         <v>233</v>
       </c>
-      <c r="C59" t="n">
-        <v>-45.72236185801946</v>
-      </c>
-      <c r="D59" t="n">
-        <v>518.530830542867</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1910,12 +1552,6 @@
       <c r="B60" t="n">
         <v>233</v>
       </c>
-      <c r="C60" t="n">
-        <v>-37.12560911509621</v>
-      </c>
-      <c r="D60" t="n">
-        <v>532.5101307643583</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1924,12 +1560,6 @@
       <c r="B61" t="n">
         <v>233</v>
       </c>
-      <c r="C61" t="n">
-        <v>-33.17267228662396</v>
-      </c>
-      <c r="D61" t="n">
-        <v>500.0310615951012</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -1937,12 +1567,6 @@
       </c>
       <c r="B62" t="n">
         <v>233</v>
-      </c>
-      <c r="C62" t="n">
-        <v>-63.41154100627495</v>
-      </c>
-      <c r="D62" t="n">
-        <v>526.481563286412</v>
       </c>
     </row>
   </sheetData>
